--- a/logs/test1_computational cost.xlsx
+++ b/logs/test1_computational cost.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>speed-up</t>
   </si>
@@ -754,7 +754,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -767,14 +767,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>Calculation</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Computational</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t> cost experiment</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -792,7 +792,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -811,8 +811,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -829,67 +830,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test1_result3!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -901,36 +887,35 @@
                   <c:v>2.332635318046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8694193891375499</c:v>
+                  <c:v>3.6641093832048099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6641093832048099</c:v>
+                  <c:v>5.4091130482124701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9496729181600299</c:v>
+                  <c:v>6.0599372868707002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4091130482124701</c:v>
+                  <c:v>6.4051065334682402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0599372868707002</c:v>
+                  <c:v>5.89550443230452</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.4192765188254901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4051065334682402</c:v>
+                  <c:v>3.9496729181600299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.89550443230452</c:v>
+                  <c:v>6.6917369714393899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6917369714393899</c:v>
+                  <c:v>2.8694193891375499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -947,67 +932,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test1_result3!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1019,36 +989,35 @@
                   <c:v>1.4484393136451099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.59883884140489</c:v>
+                  <c:v>1.66161667507019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.66161667507019</c:v>
+                  <c:v>2.0051079101177498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.85938763514873</c:v>
+                  <c:v>2.0514288064173201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0051079101177498</c:v>
+                  <c:v>1.97351915969873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0514288064173201</c:v>
+                  <c:v>1.9748289709185001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.9139238255689801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.97351915969873</c:v>
+                  <c:v>1.85938763514873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9748289709185001</c:v>
+                  <c:v>2.1615530509588501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1615530509588501</c:v>
+                  <c:v>1.59883884140489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1065,67 +1034,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test1_result3!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1137,36 +1091,35 @@
                   <c:v>1.42167462029049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4773227637873501</c:v>
+                  <c:v>1.49494645856316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.49494645856316</c:v>
+                  <c:v>1.74917671009464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59513002114268</c:v>
+                  <c:v>1.73583644098081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.74917671009464</c:v>
+                  <c:v>1.7341112346241001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.73583644098081</c:v>
+                  <c:v>1.69703506238125</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.7052187025151599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7341112346241001</c:v>
+                  <c:v>1.59513002114268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.69703506238125</c:v>
+                  <c:v>1.7831123346720701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7831123346720701</c:v>
+                  <c:v>1.4773227637873501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1183,67 +1136,52 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>test1_result3!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>mts0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613</c:v>
+                  <c:v>mts1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>mts2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1031</c:v>
+                  <c:v>mts3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318</c:v>
+                  <c:v>mts4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>mts5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345</c:v>
+                  <c:v>mts6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1378</c:v>
+                  <c:v>mts7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1390</c:v>
+                  <c:v>mts8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mts9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1255,36 +1193,35 @@
                   <c:v>1.4090723128918701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4321594765705099</c:v>
+                  <c:v>1.43553363655779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.43553363655779</c:v>
+                  <c:v>1.5512725836024299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5328975088532</c:v>
+                  <c:v>1.59420698836288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5512725836024299</c:v>
+                  <c:v>1.60950173167995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.59420698836288</c:v>
+                  <c:v>1.63143208804523</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5678161450753001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.60950173167995</c:v>
+                  <c:v>1.5328975088532</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.63143208804523</c:v>
+                  <c:v>1.6518224143264599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6518224143264599</c:v>
+                  <c:v>1.4321594765705099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1294,13 +1231,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-362160816"/>
-        <c:axId val="-362160272"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="330428832"/>
+        <c:axId val="330426656"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-362160816"/>
+        <c:axId val="330428832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,10 +1262,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Test Map</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1385,7 +1321,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1400,7 +1336,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-362160272"/>
+        <c:crossAx val="330426656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-362160272"/>
+        <c:axId val="330426656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1384,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Calculation</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Calculation time (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> time (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1505,7 +1437,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1520,7 +1452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-362160816"/>
+        <c:crossAx val="330428832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1588,7 +1520,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="+mn-lt"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -2148,16 +2082,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2442,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2475,8 +2409,8 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>441</v>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>2.332635318046</v>
@@ -2505,170 +2439,170 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>613</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>2.8694193891375499</v>
+        <v>3.6641093832048099</v>
       </c>
       <c r="D3" s="2">
-        <v>1.59883884140489</v>
+        <v>1.66161667507019</v>
       </c>
       <c r="E3" s="2">
-        <v>1.4773227637873501</v>
+        <v>1.49494645856316</v>
       </c>
       <c r="F3" s="2">
-        <v>1.4321594765705099</v>
+        <v>1.43553363655779</v>
       </c>
       <c r="G3" s="3">
         <f>(C3-D3)/C3</f>
-        <v>0.44280057231876213</v>
+        <v>0.54651553725809943</v>
       </c>
       <c r="H3" s="3">
         <f>(C3-E3)/C3</f>
-        <v>0.48514923632986839</v>
+        <v>0.59200277551332092</v>
       </c>
       <c r="I3" s="3">
         <f>(C3-F3)/C3</f>
-        <v>0.50088875749843997</v>
+        <v>0.6082175812933287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>772</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>3.6641093832048099</v>
+        <v>5.4091130482124701</v>
       </c>
       <c r="D4" s="2">
-        <v>1.66161667507019</v>
+        <v>2.0051079101177498</v>
       </c>
       <c r="E4" s="2">
-        <v>1.49494645856316</v>
+        <v>1.74917671009464</v>
       </c>
       <c r="F4" s="2">
-        <v>1.43553363655779</v>
+        <v>1.5512725836024299</v>
       </c>
       <c r="G4" s="3">
         <f>(C4-D4)/C4</f>
-        <v>0.54651553725809943</v>
+        <v>0.62930929854010531</v>
       </c>
       <c r="H4" s="3">
         <f>(C4-E4)/C4</f>
-        <v>0.59200277551332092</v>
+        <v>0.67662411665204814</v>
       </c>
       <c r="I4" s="3">
         <f>(C4-F4)/C4</f>
-        <v>0.6082175812933287</v>
+        <v>0.71321128440547688</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1031</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>3.9496729181600299</v>
+        <v>6.0599372868707002</v>
       </c>
       <c r="D5" s="2">
-        <v>1.85938763514873</v>
+        <v>2.0514288064173201</v>
       </c>
       <c r="E5" s="2">
-        <v>1.59513002114268</v>
+        <v>1.73583644098081</v>
       </c>
       <c r="F5" s="2">
-        <v>1.5328975088532</v>
+        <v>1.59420698836288</v>
       </c>
       <c r="G5" s="3">
         <f>(C5-D5)/C5</f>
-        <v>0.52922997076554568</v>
+        <v>0.66147689170614166</v>
       </c>
       <c r="H5" s="3">
         <f>(C5-E5)/C5</f>
-        <v>0.59613617274268438</v>
+        <v>0.71355537874267649</v>
       </c>
       <c r="I5" s="3">
         <f>(C5-F5)/C5</f>
-        <v>0.61189254385973146</v>
+        <v>0.73692681740835064</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1318</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>5.4091130482124701</v>
+        <v>6.4051065334682402</v>
       </c>
       <c r="D6" s="2">
-        <v>2.0051079101177498</v>
+        <v>1.97351915969873</v>
       </c>
       <c r="E6" s="2">
-        <v>1.74917671009464</v>
+        <v>1.7341112346241001</v>
       </c>
       <c r="F6" s="2">
-        <v>1.5512725836024299</v>
+        <v>1.60950173167995</v>
       </c>
       <c r="G6" s="3">
         <f>(C6-D6)/C6</f>
-        <v>0.62930929854010531</v>
+        <v>0.69188347619409418</v>
       </c>
       <c r="H6" s="3">
         <f>(C6-E6)/C6</f>
-        <v>0.67662411665204814</v>
+        <v>0.72926114100320627</v>
       </c>
       <c r="I6" s="3">
         <f>(C6-F6)/C6</f>
-        <v>0.71321128440547688</v>
+        <v>0.74871585300417531</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1338</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>6.0599372868707002</v>
+        <v>5.89550443230452</v>
       </c>
       <c r="D7" s="2">
-        <v>2.0514288064173201</v>
+        <v>1.9748289709185001</v>
       </c>
       <c r="E7" s="2">
-        <v>1.73583644098081</v>
+        <v>1.69703506238125</v>
       </c>
       <c r="F7" s="2">
-        <v>1.59420698836288</v>
+        <v>1.63143208804523</v>
       </c>
       <c r="G7" s="3">
         <f>(C7-D7)/C7</f>
-        <v>0.66147689170614166</v>
+        <v>0.66502798978533717</v>
       </c>
       <c r="H7" s="3">
         <f>(C7-E7)/C7</f>
-        <v>0.71355537874267649</v>
+        <v>0.71214760638931651</v>
       </c>
       <c r="I7" s="3">
         <f>(C7-F7)/C7</f>
-        <v>0.73692681740835064</v>
+        <v>0.7232752333955057</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>1345</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>5.4192765188254901</v>
@@ -2697,103 +2631,153 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1378</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>6.4051065334682402</v>
+        <v>3.9496729181600299</v>
       </c>
       <c r="D9" s="2">
-        <v>1.97351915969873</v>
+        <v>1.85938763514873</v>
       </c>
       <c r="E9" s="2">
-        <v>1.7341112346241001</v>
+        <v>1.59513002114268</v>
       </c>
       <c r="F9" s="2">
-        <v>1.60950173167995</v>
+        <v>1.5328975088532</v>
       </c>
       <c r="G9" s="3">
         <f>(C9-D9)/C9</f>
-        <v>0.69188347619409418</v>
+        <v>0.52922997076554568</v>
       </c>
       <c r="H9" s="3">
         <f>(C9-E9)/C9</f>
-        <v>0.72926114100320627</v>
+        <v>0.59613617274268438</v>
       </c>
       <c r="I9" s="3">
         <f>(C9-F9)/C9</f>
-        <v>0.74871585300417531</v>
+        <v>0.61189254385973146</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1390</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>5.89550443230452</v>
+        <v>6.6917369714393899</v>
       </c>
       <c r="D10" s="2">
-        <v>1.9748289709185001</v>
+        <v>2.1615530509588501</v>
       </c>
       <c r="E10" s="2">
-        <v>1.69703506238125</v>
+        <v>1.7831123346720701</v>
       </c>
       <c r="F10" s="2">
-        <v>1.63143208804523</v>
+        <v>1.6518224143264599</v>
       </c>
       <c r="G10" s="3">
         <f>(C10-D10)/C10</f>
-        <v>0.66502798978533717</v>
+        <v>0.67698176718773495</v>
       </c>
       <c r="H10" s="3">
         <f>(C10-E10)/C10</f>
-        <v>0.71214760638931651</v>
+        <v>0.73353520285055018</v>
       </c>
       <c r="I10" s="3">
         <f>(C10-F10)/C10</f>
-        <v>0.7232752333955057</v>
+        <v>0.75315491009636115</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1494</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>6.6917369714393899</v>
+        <v>2.8694193891375499</v>
       </c>
       <c r="D11" s="2">
-        <v>2.1615530509588501</v>
+        <v>1.59883884140489</v>
       </c>
       <c r="E11" s="2">
-        <v>1.7831123346720701</v>
+        <v>1.4773227637873501</v>
       </c>
       <c r="F11" s="2">
-        <v>1.6518224143264599</v>
+        <v>1.4321594765705099</v>
       </c>
       <c r="G11" s="3">
         <f>(C11-D11)/C11</f>
-        <v>0.67698176718773495</v>
+        <v>0.44280057231876213</v>
       </c>
       <c r="H11" s="3">
         <f>(C11-E11)/C11</f>
-        <v>0.73353520285055018</v>
+        <v>0.48514923632986839</v>
       </c>
       <c r="I11" s="3">
         <f>(C11-F11)/C11</f>
-        <v>0.75315491009636115</v>
+        <v>0.50088875749843997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I11">
-    <sortCondition ref="B2:B11"/>
+    <sortCondition ref="A2:A11"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
